--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/27_Düzce_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/27_Düzce_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAA6049-3DD3-4F26-B06E-D5AF3C606D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1617D919-B666-4DDF-8904-C7C78A239C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{A8C068F2-025B-4E72-ACC3-C02483BF4137}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{85CCE1BB-3077-4882-A362-26F52604ABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,16 +952,16 @@
   <cellStyles count="12">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{ADD49581-AC87-48E7-9B73-5A0C3C44C3CA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F6CA3712-2B23-4E9B-B2D7-9ECE269FA2E2}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{168544E7-7F9F-4EDC-B6A6-59000AF59AFA}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{9CE99E27-FBF4-49DB-8E9D-D70EA6B57636}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{003FA7E6-22C3-4364-AF50-2BEF0633DA1B}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{24F250C6-10DD-442F-A5D9-7F487736C21D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{AED213AC-899D-4972-BBD2-A328734E2330}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{4F7D3081-E77D-4B1F-927D-8644DF2A5BBC}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{1A21D882-6C99-47A6-87A3-EB5C7D8462A9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{942596BC-DC45-4655-8CF5-567371E64D1E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C645000A-A4B9-43EF-8D4E-18FBDF396A64}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D3BA1E37-FCCE-4E06-9474-EFB69915C76A}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F53AB638-303D-4162-B5E5-982D0873E49C}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{D894F02F-BFB6-432A-9718-306778BFFE93}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{E0B29CE6-D236-43CF-8AD2-18DE1913A5CB}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{5882FDDD-CA76-443F-BB9F-BF0346515EB0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{EF34D54D-37C6-4E21-90D1-357FF07BDA17}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{4729C599-1A60-43FA-98D8-8297DE0F0A0F}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{6308BD06-6857-462F-AC79-20E082C7734D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{CDECA24F-3DF2-4537-94A3-A67ACFE38F62}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D234DD-4A56-4FBD-8182-FC9AA2BEA081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E29B36-A518-4E0C-8F4A-2C2934DA8273}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2629,18 +2629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8840FFFD-0FD7-4D6D-834F-1EA95D7B0F5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{436FDD6C-089B-4EF0-9F1F-0B03A26C3ED3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{628AE055-E57E-4CA6-B2F7-293CE6423796}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21CF3B3A-FC0C-49C0-BBD2-8D6A7353EA71}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4BEBE264-C026-43C8-B185-8C2BC674711A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E8122A9-3F4B-4C37-A5FC-077FDF8260C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CD97F3A-0692-46EB-A529-EEB648B4A931}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A25A433-3DAD-4593-A008-262534F067D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF94CEFE-50F0-4FED-8FC6-444150AD99D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C4543D5-7901-4F1F-8C81-46814270BE98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0993CC89-EB87-4D79-A30F-A7FE1620360F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09D94D22-0DE1-47F8-9006-2EFCF1181266}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11B46C4A-4345-4BD9-8302-41C28CB99940}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{206461D4-6708-4D4D-A3F1-666C9ED690CE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{865D9C7E-20EA-40CC-AA97-3597E8C98EB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E82E473-856C-424D-BAB9-9B811A5C6543}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3317CEE4-4C35-4D94-8150-C09E3912998E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A221D829-59E3-470F-A1CC-046FE38B6307}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4031297-450B-4E27-ADE7-4B440CE3EBAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69BB6F16-4AE9-4430-9FE4-13DE53E69CCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17EB73C0-612E-4728-8FF7-BB8245736449}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A034CFCC-62C1-49EE-9B97-98F5AC049FDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52208FB8-4D70-47A6-A067-0D87A46A596A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE9229DE-F012-40E4-9893-725BBB53F760}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0C9FB7-A1A1-44FC-BEDC-4004F985EDF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0544D515-7668-4A1F-AE6E-ECB209E0C031}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3930,17 +3930,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{920EB82D-C4D2-4879-9D80-C0CFAF081057}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB668E8E-116D-438B-874B-C67B2963A462}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6C12464E-57A0-4D6D-BC2F-CC4FC2DCB531}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7D1D0FB-1B06-426D-B5B0-C87D98B8A173}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{25C31086-1B78-4FD3-B91C-B7310BCC7FD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AF91168-6046-4891-BA29-8EFF8B4280A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C16C38FE-59E6-4036-A6D3-F01BD45AB5F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F796AD5B-FC08-4AC3-A9C3-C5E71C8160E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52D7F44E-ECC7-49CF-94CB-8496DDC62747}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CEF2515-C4EC-4B64-8181-3F66087904A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C902834-9792-4DB7-B93A-BE9F4A346E47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47B0EEAB-50BA-4EDD-8860-5902590297C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE413CF2-3F77-4BA2-BB81-09DAB1DD6EEC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61AC48FF-C8E9-4013-8A3B-B5BE40537612}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43ADE0AA-81C8-42DF-9604-D1F01369B39F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{70364D9A-E7C2-4F66-BBF5-0B0C9DB9211B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA96235E-249C-4903-B20C-CDBE402AFA1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{194F0850-5C3D-4215-9425-F3BA34B3141E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3211249-79FC-493B-8752-2E9F9262DC92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{423A1F8B-2159-44DE-833F-684B4B6A1577}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEAE834B-F15A-4306-830A-5805729475CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1BE2C98-E800-43E5-8348-2B83A2D03A45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3953,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00315874-0CA7-4086-AE77-7ABE8D3BDA59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5282A30-2219-4063-A823-263FC9419C7D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5234,17 +5234,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A29A9E24-566C-44C6-A0EA-7238B34004E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4386370-FE1B-4752-A40D-3057172DD912}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2685CE2F-08EA-4DAC-9B4C-95FF49D045DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD958BB4-ECCD-4658-9442-3CCA5DCE8EEB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F37962DD-0C04-4D68-9641-5DE9B9C1ADFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{144D5839-D6E0-4A78-BFC1-259086B5DBA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F242764-0484-4344-A7D6-0C67064F7205}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84799AD9-71C3-44B2-A835-05BC992EA8AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ED4DDAB-A559-47AA-9D4F-5FE9E10E7BBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8115B97B-F52D-4D78-8041-72965831BC10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32D15EF1-11F7-4579-A6A5-86513CD21D2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1644C266-0031-4200-AB45-6DB652196FD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA978C7D-6C1E-4BEA-9159-ADF0E85F9BB5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7CACC4F-4D4E-4A36-A616-4E955FAD399F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC2529D6-850C-415D-A787-65AB8A55EEF2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4B2C5C7C-782B-4518-995C-615E2849B4FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F3A0DBB-18F2-49FC-88B1-CA383C368ACB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBAC8137-4F74-49A4-845C-D0208E49A90E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87BBEFCD-F57B-462C-BDB7-156FFBFE681D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E446432-4852-45AE-88BD-61C66695F7D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E22DA5AD-7939-46F9-9998-73A3D586F33C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABD9AA0A-F165-464C-BCD0-E91ACB77175C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5257,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE16CED-7447-4608-9E2D-F17180BE9AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0477A4-4752-41C5-B3F6-17F24048E053}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6530,17 +6530,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08E888A0-C0A9-4580-A411-8C37733FBDE2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88126F17-9166-4B2A-A153-BBD39A5A2B71}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB563637-C846-4E2D-A051-87585DC2116A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7BD4668-8640-4AC9-B226-E67C1C9B249D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E35FE9CE-E258-4789-8C88-8200BF0A984F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FCFE09A7-C1A2-4654-B9AC-39752F206473}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E00BF5A-C7AB-4F64-B1AE-17BD4851A437}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B01AE4B3-1274-440A-BD09-F54E9FCFBBA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{951DBA15-E72F-4B63-A153-CB5A1BEB7F96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F70437A3-0FF2-4C6B-8DF8-222A34A292CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{001521CA-0BB3-4CE5-8E73-FACB4F3227FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1089DB9B-6710-4874-9A18-E34E6A6E3602}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0485224-1A3A-4721-A705-ACF5FC3D2927}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B66D2EB6-B595-4DB2-94D0-EFB8CC45A99A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87BF88FF-4578-4101-AD41-6C275A20EB69}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7ADF10AC-F737-4661-8E61-5805433E6D78}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{501D41DA-37A1-43F5-B0AB-56276629D006}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A5D1150-34C9-4EB6-B7CE-77731EBB4115}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DE56422-200E-4DB0-B41F-D123E891A777}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2019FAE-8CE0-4E9A-964E-8DFEFB0CCCF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5D96328-86ED-4664-A40C-5DFFCFC09D51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBCEE84C-7BC0-4DE8-9406-D6A1825D4066}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E58A3-EB28-4ABD-BB48-128C5B2DD8CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A23CB9-0C0B-4F1D-A1D6-3AF615CDCE15}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7842,18 +7842,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98AB2123-5281-4E94-A18A-72DA5C737E59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E3466A9-C700-4BAD-B758-47186F3A4131}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55DCADCA-ADD3-40DE-8D0E-D9101F6E14E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84D8F16D-D86E-4759-9B14-E430F206C82C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4774584E-8290-4777-826E-29E59BE713BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C05E8A95-7691-4EEF-8EC2-548C1D41B7FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{634AA382-B709-468A-B342-95AC94FB6D67}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA8D6F8A-5BF0-49AC-A2DF-7A22C4E3E341}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17665A4D-BB70-4F71-B51D-78466FF61127}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F49ED00-22A9-4DD7-BA21-3211AD427BB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB5C3227-45D6-468E-85D7-6FDD2B239476}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8FC4878-17F3-4387-820B-64E41AEC72EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73A1091F-7B61-46BC-813A-A5FE2CF2404B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3FEB782F-E462-4165-99BF-1A6D97905144}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{983CFDFF-A216-4FEE-A8B7-3753CCD44DE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CE2E7FB-2CF3-47D1-9F4B-02363B4F79FA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{05B075C6-5DC5-4376-9A4D-D2DF45B96E31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F7A78F7-03DC-425A-B044-29172CBEF78E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE5D73C8-C42F-47D1-9F88-D9D7109CB798}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41B79236-094F-4AF0-A231-1DF7A98C600F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{680B265C-2671-4725-9205-E568BF8225EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AC91F49-E97F-4E3A-A3C3-3FD4741AD406}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B79EC772-B937-4C68-AAF8-4036860E8464}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE2D3686-DAF8-4865-BEC8-0FC10967DBEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7866,7 +7866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C883-F24D-4894-AA9F-9DE34F4D3833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C909D866-3AC5-4D61-87B0-5A80C4293332}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9157,18 +9157,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B65AE9E-6930-493B-ACC8-97624F682993}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A64D633-8280-4928-AA2B-9D2215E69C9D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC0E5719-EB17-4332-BEB3-E52747C14C42}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93F57A15-CC68-44B0-8C3B-D2B6A9159489}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A1E88C13-5230-4C1E-BFEB-C9D7B3995CF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEB6A4C8-2B1C-4253-A282-FBBD5753215F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34BD5B07-56AB-4753-85F7-240738883766}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22C97CE0-0123-434E-8F3B-0D2E4727C567}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F082DB83-C9B2-49AA-8143-30C4B86025A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{902044B2-C803-4C35-A15C-FD5320EAF030}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F306E428-EF56-43CF-A584-2AB6A2D07AC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2D9B851-A107-4A11-8823-E73B53FD759F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{497668F9-67EA-4742-ABD6-932037843ED5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58FA2858-F2F3-45C8-9B8A-EB36445D56DE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE2155C4-AF5C-4167-8487-66DC62EA0AA5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5B84579-0EE2-452F-9CB7-8E314BDAD1F3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{638E2FDA-E269-48C4-864D-9E3C5953D833}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D36927F-E24E-431E-AF55-97072C72F96F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D0A091B-75AD-4138-8322-2A638A054159}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE4E69E5-078D-4170-828D-A08260805B87}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDAA097F-D3F1-45B7-A748-FF9CB62175B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F665E5B-F85C-4904-86C1-E7F73D5F7886}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB2529F9-7B0B-4E35-ABC7-7A286C079C1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F54F597-0877-4D0C-B15A-3DF21A2F1182}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9181,7 +9181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78E61D0-9E1B-4B5D-8BC1-DE6EECF99394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F6306-44D4-4908-B68A-6D9559FE2A90}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10466,17 +10466,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{140CEB6C-63B3-4DC4-82DD-5FD8ACBBDC01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B10B4921-2CAA-4C62-9783-4529943DD725}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{107270BC-A11B-4CF8-8E7F-46A608399B3A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1471252-4FB2-4799-A315-A01B37213167}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DC1F7094-3062-487B-AB9E-C9EA41BCFA16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB330C4F-C531-4072-A032-40BABE7D7EC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDEBD8C9-2C8A-4C9C-8259-8F40A60FF00D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48505105-17AB-4E0E-AD6D-DC29DA3D6259}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{255295C9-55E6-478B-AF5C-BB7DABB0FC2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56F976E9-5E72-4C41-AF3D-6C58CE4842A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C7B885D-5B29-4032-A040-0A84F64CD07B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8421DF7E-E437-4447-A7BA-134F847B2A7F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E15864C-1CC4-4448-8165-5C041A386544}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C78F9829-8CCD-4765-9D56-3C965CDFA34B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55876CD2-F3CD-45E7-9647-0F128996AF91}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0E72D566-F5C6-4163-B0B5-58F6BEAC936C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4A03D40-8B7A-443C-A8CC-CC645E9BBAEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2AE35E0D-2B85-4B2A-9189-B09B949C32DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AD1B542-404B-4757-A5B1-BB942677BD8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D813A0F-75F1-4B0F-8032-B8668422C0AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43AB6685-8708-4BBA-831E-1EC0254D47AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE8752F6-7606-4D05-9A70-27AC1FEE8657}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10489,7 +10489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B651849-DF81-493A-93CB-CD9E264D9605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12B1E35-9510-4FBB-9B18-002A008AE191}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11774,17 +11774,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89E5C595-20F7-4A76-9CDB-CF44CAE5422A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEED09F7-DEEC-4347-BC23-0DA4757523D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5756942C-9EFD-4DB9-BC9F-E37A8CAF1470}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06C46D6E-FB37-4022-A5BE-F0BC90F1745B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CCAC3049-C642-4C20-B73F-8B72F5E1452C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E455FE6-70E4-4BD7-BEC9-B2B5D5EE48D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E863EB48-3854-4BC9-A5F8-0AA57D2358A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C81332F3-8BE9-44DB-B4C1-BE83E6AAE018}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{352D3581-B37E-40C0-B538-3FBCEBA6BD8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2222786A-7D44-4AD7-AF31-CE97E7BF303A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA546E39-75E0-46D0-B711-C2EF016E33F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5024FB79-6F16-4DEB-96AE-8488C41F7D68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E40DFAA8-51A5-4950-83BA-284C26076DA7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7795529C-A19B-4EB7-B247-A90CCA0B21D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C244682C-CA84-4171-AB58-BAAD3B08D6EA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3FD8B673-3921-4CCD-8009-1205FA989654}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D852892-186C-4E03-A25E-E929B3219381}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFD42A8D-3216-4580-BC49-3BAACD7B39D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F6A7B03-0326-415D-99F1-93E92030DFC6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56CC58B2-4C99-4351-A047-0D6081CA7D08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEC27F1C-D875-4A93-B085-08537CF25C03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04F1A3B4-187F-4474-BCD2-F574BE5A440C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11797,7 +11797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3F220D-4AE7-4D3D-8C76-A4AEF6F28139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A269B-2F0C-443D-868E-0CEC4D2549BF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13082,17 +13082,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD54386B-D14F-49AE-9800-F863F20D1B70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D146BF4A-5158-4B42-8960-E03D5AD21689}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA43EC5A-CA3D-4E52-B178-B4098975CC72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCC2C14C-8A17-4F3D-B33E-15D008F866C7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A06DA840-F0ED-4295-936B-E1AAF1AB0144}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2FFBF02-B145-4614-B882-8A885BD4D71D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4038B11D-19C0-4DD4-8057-CBDABDC798A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C80102C7-D394-4F54-A887-86E5130E6C6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADCACB70-5168-4089-9790-3EA622CBD847}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58B4F64A-216B-4A2D-B046-8ED3983F57C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB857612-EE55-4D70-A2B9-81D08CD19CE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAB972F6-4BE1-4917-B77D-F873FCE5C1FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDE1453A-D936-45BC-9224-7D553281B342}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{425BC8F6-7B1C-4F97-A1E0-A1F8EACE935F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F6F5290-4CF8-4C51-8452-124F7C7C4137}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{186CE963-29DA-46A3-893B-333006EE3C60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AD61746-A1A5-4C4B-8F46-7526D124C9B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B3C9386-E73D-4A98-8FE7-E918884ED631}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{110A53EB-0A71-4924-8C79-3D46867B9958}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{039CBA51-EE72-495A-B48C-8340EB48D335}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4619F7BE-6BE7-415C-982A-99B8F6D15C9F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F0B974D-BDE7-45DA-93ED-D9B483DF9C64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13105,7 +13105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E71C728-0C6C-43AF-A420-FF8BAB0E5F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084365C-F238-4645-9313-A775FF566427}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14390,17 +14390,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F27BBD51-D29F-4534-8841-E110E3E0D99D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{438AA6E7-D6E0-4831-813B-AA425571FBAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16EFA9A6-97BA-4572-A093-8E10BBBB10C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{465DDDCF-99B7-4E3D-91C5-20BC43F19AED}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CF36FD1A-DE9F-4328-B9ED-ED48EDCDDE68}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DFAB6DB-68A1-47A1-B600-EF8100459D71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10172F0D-B4FC-4F81-85DC-F74B0B5EFBBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3288D435-4E0C-4797-9892-BC50359EABA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{161EF9D7-B810-4687-B9AB-0DE30193F5B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3AD9DFB-5E7D-45AD-8580-3832571401B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24100ABD-09CC-47E0-AB40-0685C347B204}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC6502FD-0BAF-4E49-BB1D-FC0FABCF1913}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E51402E-39C1-4EC8-BAE0-5CD28E4FEC3C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4ACC1E7-9B14-4C9B-B305-016474037B2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DDCC70B-3C63-4D83-A17B-ABB9075114B6}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{835180AC-726B-4ECA-A1A7-4FC627F6D45F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF2CD85E-AA13-407A-8065-4504ED7227C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D86F4A6-7C4B-4858-96CC-32D742C26DAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEC63722-8E4B-43CF-ADED-98DD5FE87FD1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B46BA827-7902-4C6E-8E46-2B43BF17FAFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23E12911-F22E-486F-9A88-DFE58E35CE4A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5414FBCA-3D06-4CC0-9F4F-BB1E5B4DAD75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14413,7 +14413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BEF2C6-DAD5-42B2-83C9-6FC3A9F57FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08724133-FE76-4C36-8B0D-367259E09E9B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15702,17 +15702,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ED4947A-E562-43A2-9E84-2E7CF6C512E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{653BAD6B-DAB7-48B0-BAE7-916C969E10C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BFF0A1A-149E-46FF-8139-E02F3F75ACEA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08E700A3-7334-4BB5-A6AA-78DD3B4CE5C6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1276EABD-9EA9-49EE-A8E1-1E16D651AFBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A10BE474-E1A3-42B1-98EA-D378EF6A3B2D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0705BA80-711E-4453-A6CF-F77A70EF7A1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B24739DE-26DE-4044-8884-A70259459E95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2048ABB5-461D-4547-8B5D-F0548ED6FDD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97315C6C-C76A-4D68-A830-7843A3DE9B2F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3C8FF42-8002-4E07-8298-94576E9347AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F0C4E54-C59D-47D5-BC24-89F5B2628F7A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD575F72-5226-415C-9B3B-B39E609D0C43}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D6778A3-9EF4-4329-B9E4-49ECD45DEE3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E37604D-26C6-45AB-9FB1-0146773A7A0C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EFA3FEE2-E4E0-469B-9F86-A0D73C8D7CF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{753A12A3-293B-4493-9543-E37CA10649F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F8AD9D2-1E22-4A7F-94D1-F14E22851DDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C10A318B-5B7C-42F4-9A69-34F09D3404DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C32798C-C588-42CE-AD1B-9A7268186466}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6566D2BF-75F5-4302-9390-A06E6AC1125F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{990388AB-3514-4521-A712-805A1FBC65A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15725,7 +15725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D7D4F-E910-4BFB-8E02-490230C2FEA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF34871-7845-4FFC-B2BC-B71BB45188E6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17014,17 +17014,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{709F4BBE-8FF1-48DA-AC73-AADA0CCBADA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E9A706B-8B4B-4843-A277-D5C0EF203739}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0823977-DD4C-447D-880F-58540F758166}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DFA4D1EF-34E9-4169-BA6C-C6912E8BD7FB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{266EC467-474D-485F-91FC-3B96AD933539}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBFF1767-6809-4F3B-B0E8-6E65AB4B3FF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37FCA60E-9D2B-4313-A99C-3D5F47A69889}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9788EA6-5053-405E-B7A9-53386E2C3EFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7C4C342-CAD8-4DA9-AFD2-28D48DEF493C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EF7E7DC-A18D-4B5F-8581-C5A7B6701E55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4C00071-EC2E-4483-AF71-B235931E7A43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4969A9A4-C542-4935-9456-D382241C4925}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC7EE5C3-1FCF-43DA-A54F-50A4AD93A60C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD542024-61DE-4A13-9D54-6694D4DF0260}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CF83CC5-0C0E-4D36-983E-9B341E95C9A1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E973CA54-9E8B-4C03-9188-52137E8132BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3739C9E-BDFA-49A0-B1EF-6B0600B86135}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2783AED1-DEB1-4193-AB8D-9D6DB2FA1E07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F3664AB-74BC-4109-AB89-EC62D06803C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB4AD27C-593F-4F04-AFC4-45DAE7554BEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{924AA8E2-37F3-4907-A3BA-2AD90E770770}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DBCC50C-5408-43F2-8026-68252FD7A208}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
